--- a/other/coa_nsf.xlsx
+++ b/other/coa_nsf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DBDF6-5C68-974A-9627-4878C0F5EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F24E257-6508-9A4D-B1E5-8AB4366CE3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="21440" windowHeight="23140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="126">
   <si>
     <t>to disambiguate common names</t>
   </si>
@@ -462,15 +462,6 @@
     <t>Present</t>
   </si>
   <si>
-    <t>Cheryl Doss</t>
-  </si>
-  <si>
-    <t>Douglas Gollin</t>
-  </si>
-  <si>
-    <t>Simon Doss-Gollin</t>
-  </si>
-  <si>
     <t>Mother</t>
   </si>
   <si>
@@ -513,114 +504,63 @@
     <t>casey@engin.umass.edu</t>
   </si>
   <si>
-    <t>Klaus Keller</t>
-  </si>
-  <si>
     <t>kzk10@psu.edu</t>
   </si>
   <si>
-    <t>Upmanu Lall</t>
-  </si>
-  <si>
-    <t>Michelle Ho</t>
-  </si>
-  <si>
     <t>CSIRO Australia</t>
   </si>
   <si>
     <t>michelleho84@gmail.com</t>
   </si>
   <si>
-    <t>David Farnham</t>
-  </si>
-  <si>
     <t>Carnegie Institute for Science</t>
   </si>
   <si>
     <t>dfarnham@carnegiescience.edu</t>
   </si>
   <si>
-    <t>Jonathan Lamontagne</t>
-  </si>
-  <si>
     <t>Tufts University</t>
   </si>
   <si>
     <t>Jonathan.Lamontagne@tufts.edu</t>
   </si>
   <si>
-    <t>Yash Vijay Amonkar</t>
-  </si>
-  <si>
     <t>yva2000@columbia.edu</t>
   </si>
   <si>
-    <t>Scott Steinschneider</t>
-  </si>
-  <si>
     <t>Cornell University</t>
   </si>
   <si>
     <t>ss3378@cornell.edu</t>
   </si>
   <si>
-    <t>Viktor Rozer</t>
-  </si>
-  <si>
     <t>Grantham Institute, LSE</t>
   </si>
   <si>
     <t>v.roezer@lse.ac.uk</t>
   </si>
   <si>
-    <t>Heidi Kreibich</t>
-  </si>
-  <si>
     <t>GFZ-Potsdam</t>
   </si>
   <si>
     <t>heidi.kreibich@gfz-potsdam.de</t>
   </si>
   <si>
-    <t>Kai Schroter</t>
-  </si>
-  <si>
     <t>kai.schroeter@gfz-potsdam.de</t>
   </si>
   <si>
-    <t>Meike Muller</t>
-  </si>
-  <si>
     <t>Deutsche Rückversicherung AG</t>
   </si>
   <si>
     <t>meike.mueller@deutscherueck.de</t>
   </si>
   <si>
-    <t>Nivedita Sairam</t>
-  </si>
-  <si>
     <t>nivedita.sairam@gfz-potsdam.de</t>
   </si>
   <si>
-    <t>Bruno Merz</t>
-  </si>
-  <si>
     <t>bruno.merz@gfz-potsdam.de</t>
   </si>
   <si>
-    <t>Shane Walker</t>
-  </si>
-  <si>
-    <t>Nathan Geldner</t>
-  </si>
-  <si>
-    <t>David R. Johnson</t>
-  </si>
-  <si>
-    <t>Vijay Modi</t>
-  </si>
-  <si>
     <t>Purdue</t>
   </si>
   <si>
@@ -633,18 +573,12 @@
     <t>modi@columbia.edu</t>
   </si>
   <si>
-    <t>Alicia Dailey Cooperman</t>
-  </si>
-  <si>
     <t>Texas A&amp;M University</t>
   </si>
   <si>
     <t>alicia.cooperman@tamu.edu</t>
   </si>
   <si>
-    <t>Alex Mayer</t>
-  </si>
-  <si>
     <t>University of Texas El Paso</t>
   </si>
   <si>
@@ -652,6 +586,114 @@
   </si>
   <si>
     <t>wswalker2@utep.edu</t>
+  </si>
+  <si>
+    <t>Doss, Cheryl</t>
+  </si>
+  <si>
+    <t>Gollin, Douglas</t>
+  </si>
+  <si>
+    <t>Doss-Gollin, Simon</t>
+  </si>
+  <si>
+    <t>Mayer, Alex</t>
+  </si>
+  <si>
+    <t>Cooperman, Alicia Dailey</t>
+  </si>
+  <si>
+    <t>Merz, Bruno</t>
+  </si>
+  <si>
+    <t>Farnham, David J.</t>
+  </si>
+  <si>
+    <t>Johnson, David R.</t>
+  </si>
+  <si>
+    <t>Kreibich, Heidi</t>
+  </si>
+  <si>
+    <t>Lamontagne, Jonathan</t>
+  </si>
+  <si>
+    <t>Schroter, Kai</t>
+  </si>
+  <si>
+    <t>Keller, Klaus</t>
+  </si>
+  <si>
+    <t>Muller, Meike</t>
+  </si>
+  <si>
+    <t>Ho, Michelle</t>
+  </si>
+  <si>
+    <t>Geldner, Nathan</t>
+  </si>
+  <si>
+    <t>Sairam, Nivedita</t>
+  </si>
+  <si>
+    <t>Steinschneider, Scott</t>
+  </si>
+  <si>
+    <t>Walker, Shane</t>
+  </si>
+  <si>
+    <t>Modi, Vijay</t>
+  </si>
+  <si>
+    <t>Rözer, Viktor</t>
+  </si>
+  <si>
+    <t>Amonkar, Yash Vijay</t>
+  </si>
+  <si>
+    <t>Muñoz, Ángel G.</t>
+  </si>
+  <si>
+    <t>Mason, Simon J.</t>
+  </si>
+  <si>
+    <t>Pastén, Max</t>
+  </si>
+  <si>
+    <t>Dirección de Meteorología e Hidrología, Paraguay</t>
+  </si>
+  <si>
+    <t>Faranda, Davide</t>
+  </si>
+  <si>
+    <t>Messori, Gabriele</t>
+  </si>
+  <si>
+    <t>Yiou, Pascal</t>
+  </si>
+  <si>
+    <t>davide.faranda@lsce.ipsl.fr</t>
+  </si>
+  <si>
+    <t>Uppsala University</t>
+  </si>
+  <si>
+    <t>gabriele.messori@geo.uu.se</t>
+  </si>
+  <si>
+    <t>pascal.yiou@cea.fr</t>
+  </si>
+  <si>
+    <t>Laboratoire des Sciences du Climat et de l'Environnement</t>
+  </si>
+  <si>
+    <t>agmunoz@iri.columbia.edu</t>
+  </si>
+  <si>
+    <t>simon@iri.columbia.edu</t>
+  </si>
+  <si>
+    <t>maxpasten@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1171,11 +1213,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2321,10 +2363,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A51:E72" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="A51:E72" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:E72">
-    <sortCondition descending="1" ref="E51:E72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="TableD" displayName="TableD" ref="A51:E82" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="A51:E82" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A52:E82">
+    <sortCondition ref="B51:B82"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="4" dataDxfId="23"/>
@@ -2343,8 +2385,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A79:E84" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A79:E84" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="TableD5" displayName="TableD5" ref="A89:E94" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A89:E94" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="5" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name:" dataDxfId="12"/>
@@ -2364,6 +2406,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="TableC" displayName="TableC" ref="A37:D44" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A37:D44" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A38:D44">
+    <sortCondition ref="B37:B44"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="3" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Advisor/Advisee Name:" dataDxfId="2"/>
@@ -2585,10 +2630,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2861,10 +2906,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>48</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>51</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
@@ -2874,10 +2919,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="16"/>
@@ -2887,10 +2932,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
@@ -2951,13 +2996,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2965,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" s="60" t="s">
         <v>44</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2979,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C40" s="60" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2993,13 +3038,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3007,13 +3052,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="60" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C42" s="60" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3096,122 +3141,122 @@
       </c>
     </row>
     <row r="52" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>101</v>
+      <c r="B52" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>44</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="16">
-        <v>44384</v>
+        <v>69</v>
+      </c>
+      <c r="E52" s="66">
+        <v>43817</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>6</v>
+      <c r="A53" s="17" t="s">
+        <v>2</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="65" t="s">
-        <v>103</v>
+        <v>85</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="E53" s="16">
         <v>44384</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
-        <v>2</v>
+      <c r="A54" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="16">
-        <v>44384</v>
+        <v>122</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="66">
+        <v>43084</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" s="16">
-        <v>44384</v>
+        <v>6</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="66">
+        <v>43859</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
-        <v>2</v>
+      <c r="A56" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>111</v>
+        <v>81</v>
+      </c>
+      <c r="D56" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="E56" s="16">
         <v>44384</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>44</v>
+      <c r="B57" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>63</v>
       </c>
       <c r="D57" s="65" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E57" s="66">
-        <v>44355</v>
+        <v>43859</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="67">
-        <v>44196</v>
+      <c r="B58" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="16">
+        <v>44384</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3219,16 +3264,16 @@
         <v>6</v>
       </c>
       <c r="B59" s="60" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C59" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="16">
-        <v>43859</v>
+        <v>45</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="67">
+        <v>44196</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3236,16 +3281,16 @@
         <v>6</v>
       </c>
       <c r="B60" s="60" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="65" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="E60" s="66">
-        <v>43859</v>
+        <v>43551</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3253,15 +3298,15 @@
         <v>6</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C61" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="66">
+        <v>44</v>
+      </c>
+      <c r="D61" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="16">
         <v>43859</v>
       </c>
     </row>
@@ -3270,50 +3315,50 @@
         <v>6</v>
       </c>
       <c r="B62" s="60" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C62" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="71" t="s">
-        <v>76</v>
+        <v>67</v>
+      </c>
+      <c r="D62" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="E62" s="16">
         <v>43817</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="60" t="s">
+      <c r="B63" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="E63" s="66">
-        <v>43817</v>
+        <v>43344</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="66">
-        <v>43623</v>
+        <v>2</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="16">
+        <v>44384</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3321,50 +3366,50 @@
         <v>6</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C65" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="65" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>80</v>
       </c>
       <c r="E65" s="66">
         <v>43551</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>86</v>
+      <c r="B66" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E66" s="66">
-        <v>43551</v>
+        <v>43084</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>89</v>
+      <c r="B67" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="65" t="s">
+        <v>84</v>
       </c>
       <c r="E67" s="66">
-        <v>43551</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3372,167 +3417,297 @@
         <v>6</v>
       </c>
       <c r="B68" s="60" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E68" s="66">
         <v>43551</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="68" t="s">
-        <v>94</v>
+      <c r="B69" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="65" t="s">
+        <v>123</v>
       </c>
       <c r="E69" s="66">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70" s="66">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="66">
         <v>43551</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+    <row r="72" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="66">
+      <c r="B72" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" s="66">
         <v>43551</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="66"/>
-    </row>
-    <row r="72" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="25"/>
-    </row>
-    <row r="73" spans="1:5" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:5" s="30" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="42" t="s">
+    <row r="73" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="66">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="66">
+        <v>43623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="16">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="66">
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="63"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="66"/>
+    </row>
+    <row r="78" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="63"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="66"/>
+    </row>
+    <row r="79" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="63"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="66"/>
+    </row>
+    <row r="80" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="63"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="66"/>
+    </row>
+    <row r="81" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="63"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="66"/>
+    </row>
+    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="24"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="25"/>
+    </row>
+    <row r="83" spans="1:5" s="30" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" s="30" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-    </row>
-    <row r="75" spans="1:5" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="43" t="s">
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+    </row>
+    <row r="85" spans="1:5" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="44"/>
-    </row>
-    <row r="76" spans="1:5" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="43" t="s">
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="44"/>
+    </row>
+    <row r="86" spans="1:5" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="44"/>
-    </row>
-    <row r="77" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="44"/>
-    </row>
-    <row r="78" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="7" t="s">
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
+    </row>
+    <row r="87" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
+    </row>
+    <row r="88" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51" t="s">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B89" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C79" s="52" t="s">
+      <c r="C89" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D89" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="53" t="s">
+      <c r="E89" s="53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="16"/>
-    </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="16"/>
-    </row>
-    <row r="82" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="16"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="17"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="16"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="22"/>
+    <row r="90" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="14"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="16"/>
+    </row>
+    <row r="91" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="17"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="16"/>
+    </row>
+    <row r="92" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="17"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="16"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="16"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="22"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3543,29 +3718,32 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A33" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"G:,T:,P:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A80:A84" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A90:A94" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"B:,E:"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A38:A44" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"G:,T:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A52:A72" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A52:A82" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"A:,C:"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D66" r:id="rId1" xr:uid="{80DA74E3-B56F-3841-89D0-CD3DBD438C03}"/>
-    <hyperlink ref="D67" r:id="rId2" xr:uid="{0E03E980-83E9-A549-ACCA-1403B9CFB9A5}"/>
+    <hyperlink ref="D60" r:id="rId1" xr:uid="{80DA74E3-B56F-3841-89D0-CD3DBD438C03}"/>
+    <hyperlink ref="D73" r:id="rId2" xr:uid="{0E03E980-83E9-A549-ACCA-1403B9CFB9A5}"/>
     <hyperlink ref="D68" r:id="rId3" xr:uid="{18F43506-F012-EB4E-8AB5-9423AF25E6D8}"/>
+    <hyperlink ref="D54" r:id="rId4" xr:uid="{DCA8739F-D0AD-F04C-AEA8-C9291BE5CB4A}"/>
+    <hyperlink ref="D66" r:id="rId5" xr:uid="{E1943CE3-D791-2048-8DEE-7F1D24A8938B}"/>
+    <hyperlink ref="D76" r:id="rId6" xr:uid="{50EE6408-8875-B04C-9B30-CCBBFB2E45E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId4"/>
+  <pageSetup scale="96" fitToHeight="0" orientation="portrait" r:id="rId7"/>
   <tableParts count="5">
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
